--- a/RiskParity_Constraints.xlsx
+++ b/RiskParity_Constraints.xlsx
@@ -523,7 +523,7 @@
         <v>Energies</v>
       </c>
       <c r="F5" t="str">
-        <v>&lt;</v>
+        <v>=&lt;</v>
       </c>
       <c r="G5" t="str">
         <v>0.2</v>
